--- a/Assignment2-fixed/TestCase-Assignment2-QuynhAnh.xlsx
+++ b/Assignment2-fixed/TestCase-Assignment2-QuynhAnh.xlsx
@@ -3708,6 +3708,15 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3786,41 +3795,80 @@
     <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3828,6 +3876,15 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3837,68 +3894,11 @@
     <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4685,37 +4685,37 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="174" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="176"/>
+      <c r="B4" s="178"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="179"/>
       <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="177" t="s">
+      <c r="A5" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="177"/>
-      <c r="C5" s="178" t="s">
+      <c r="B5" s="180"/>
+      <c r="C5" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="181"/>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A6" s="179" t="s">
+      <c r="A6" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="180"/>
-      <c r="C6" s="173" t="s">
+      <c r="B6" s="183"/>
+      <c r="C6" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="173"/>
-      <c r="E6" s="173"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
       <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1">
@@ -4727,14 +4727,14 @@
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" s="141" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A8" s="171" t="s">
+      <c r="A8" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="172"/>
-      <c r="C8" s="172"/>
-      <c r="D8" s="172"/>
-      <c r="E8" s="172"/>
-      <c r="F8" s="172"/>
+      <c r="B8" s="175"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="175"/>
     </row>
     <row r="9" spans="1:6" s="141" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="142" t="s">
@@ -4817,14 +4817,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="141" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="173" t="s">
+      <c r="A13" s="176" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="173"/>
-      <c r="C13" s="173"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
+      <c r="B13" s="176"/>
+      <c r="C13" s="176"/>
+      <c r="D13" s="176"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="176"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="18"/>
@@ -4947,36 +4947,36 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1">
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="184" t="s">
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="187" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="184"/>
+      <c r="K2" s="187"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="190" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="185" t="s">
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="188" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="184"/>
-      <c r="K3" s="184"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="188"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="187"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="B4" s="147"/>
@@ -4996,65 +4996,65 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="191" t="s">
+      <c r="A7" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="191"/>
-      <c r="C7" s="191"/>
-      <c r="D7" s="191"/>
-      <c r="E7" s="191"/>
-      <c r="F7" s="191"/>
-      <c r="G7" s="191"/>
-      <c r="H7" s="191"/>
-      <c r="I7" s="191"/>
+      <c r="B7" s="194"/>
+      <c r="C7" s="194"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="194"/>
+      <c r="G7" s="194"/>
+      <c r="H7" s="194"/>
+      <c r="I7" s="194"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A8" s="191"/>
-      <c r="B8" s="191"/>
-      <c r="C8" s="191"/>
-      <c r="D8" s="191"/>
-      <c r="E8" s="191"/>
-      <c r="F8" s="191"/>
-      <c r="G8" s="191"/>
-      <c r="H8" s="191"/>
-      <c r="I8" s="191"/>
+      <c r="A8" s="194"/>
+      <c r="B8" s="194"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="194"/>
+      <c r="F8" s="194"/>
+      <c r="G8" s="194"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="191" t="s">
+      <c r="A9" s="194" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="191"/>
-      <c r="C9" s="191"/>
-      <c r="D9" s="191"/>
-      <c r="E9" s="191"/>
-      <c r="F9" s="191"/>
-      <c r="G9" s="191"/>
-      <c r="H9" s="191"/>
-      <c r="I9" s="191"/>
+      <c r="B9" s="194"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="194"/>
+      <c r="G9" s="194"/>
+      <c r="H9" s="194"/>
+      <c r="I9" s="194"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="191"/>
-      <c r="B10" s="191"/>
-      <c r="C10" s="191"/>
-      <c r="D10" s="191"/>
-      <c r="E10" s="191"/>
-      <c r="F10" s="191"/>
-      <c r="G10" s="191"/>
-      <c r="H10" s="191"/>
-      <c r="I10" s="191"/>
+      <c r="A10" s="194"/>
+      <c r="B10" s="194"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="194"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
     </row>
     <row r="11" spans="1:11" ht="14.25">
-      <c r="A11" s="192" t="s">
+      <c r="A11" s="195" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="192"/>
-      <c r="C11" s="192"/>
-      <c r="D11" s="192"/>
-      <c r="E11" s="192"/>
-      <c r="F11" s="192"/>
-      <c r="G11" s="192"/>
-      <c r="H11" s="192"/>
-      <c r="I11" s="192"/>
+      <c r="B11" s="195"/>
+      <c r="C11" s="195"/>
+      <c r="D11" s="195"/>
+      <c r="E11" s="195"/>
+      <c r="F11" s="195"/>
+      <c r="G11" s="195"/>
+      <c r="H11" s="195"/>
+      <c r="I11" s="195"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3"/>
@@ -5076,65 +5076,65 @@
       <c r="A14" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="188" t="s">
+      <c r="B14" s="191" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="189"/>
-      <c r="D14" s="189"/>
-      <c r="E14" s="189"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="189"/>
-      <c r="J14" s="189"/>
-      <c r="K14" s="190"/>
+      <c r="C14" s="192"/>
+      <c r="D14" s="192"/>
+      <c r="E14" s="192"/>
+      <c r="F14" s="192"/>
+      <c r="G14" s="192"/>
+      <c r="H14" s="192"/>
+      <c r="I14" s="192"/>
+      <c r="J14" s="192"/>
+      <c r="K14" s="193"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="188" t="s">
+      <c r="B15" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="189"/>
-      <c r="D15" s="189"/>
-      <c r="E15" s="189"/>
-      <c r="F15" s="189"/>
-      <c r="G15" s="189"/>
-      <c r="H15" s="189"/>
-      <c r="I15" s="189"/>
-      <c r="J15" s="189"/>
-      <c r="K15" s="190"/>
+      <c r="C15" s="192"/>
+      <c r="D15" s="192"/>
+      <c r="E15" s="192"/>
+      <c r="F15" s="192"/>
+      <c r="G15" s="192"/>
+      <c r="H15" s="192"/>
+      <c r="I15" s="192"/>
+      <c r="J15" s="192"/>
+      <c r="K15" s="193"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
       <c r="A16" s="129"/>
-      <c r="B16" s="188" t="s">
+      <c r="B16" s="191" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="189"/>
-      <c r="D16" s="189"/>
-      <c r="E16" s="189"/>
-      <c r="F16" s="189"/>
-      <c r="G16" s="189"/>
-      <c r="H16" s="189"/>
-      <c r="I16" s="189"/>
-      <c r="J16" s="189"/>
-      <c r="K16" s="190"/>
+      <c r="C16" s="192"/>
+      <c r="D16" s="192"/>
+      <c r="E16" s="192"/>
+      <c r="F16" s="192"/>
+      <c r="G16" s="192"/>
+      <c r="H16" s="192"/>
+      <c r="I16" s="192"/>
+      <c r="J16" s="192"/>
+      <c r="K16" s="193"/>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1">
       <c r="A17" s="129"/>
-      <c r="B17" s="188" t="s">
+      <c r="B17" s="191" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="189"/>
-      <c r="D17" s="189"/>
-      <c r="E17" s="189"/>
-      <c r="F17" s="189"/>
-      <c r="G17" s="189"/>
-      <c r="H17" s="189"/>
-      <c r="I17" s="189"/>
-      <c r="J17" s="189"/>
-      <c r="K17" s="190"/>
+      <c r="C17" s="192"/>
+      <c r="D17" s="192"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="192"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="192"/>
+      <c r="K17" s="193"/>
     </row>
     <row r="19" spans="1:14" ht="23.25">
       <c r="A19" s="4" t="s">
@@ -5145,40 +5145,40 @@
       <c r="A20" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="188" t="s">
+      <c r="B20" s="191" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="189"/>
-      <c r="D20" s="189"/>
-      <c r="E20" s="189"/>
-      <c r="F20" s="189"/>
-      <c r="G20" s="190"/>
+      <c r="C20" s="192"/>
+      <c r="D20" s="192"/>
+      <c r="E20" s="192"/>
+      <c r="F20" s="192"/>
+      <c r="G20" s="193"/>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1">
       <c r="A21" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="188" t="s">
+      <c r="B21" s="191" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="189"/>
-      <c r="D21" s="189"/>
-      <c r="E21" s="189"/>
-      <c r="F21" s="189"/>
-      <c r="G21" s="190"/>
+      <c r="C21" s="192"/>
+      <c r="D21" s="192"/>
+      <c r="E21" s="192"/>
+      <c r="F21" s="192"/>
+      <c r="G21" s="193"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
       <c r="A22" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="188" t="s">
+      <c r="B22" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="189"/>
-      <c r="D22" s="189"/>
-      <c r="E22" s="189"/>
-      <c r="F22" s="189"/>
-      <c r="G22" s="190"/>
+      <c r="C22" s="192"/>
+      <c r="D22" s="192"/>
+      <c r="E22" s="192"/>
+      <c r="F22" s="192"/>
+      <c r="G22" s="193"/>
     </row>
     <row r="24" spans="1:14" ht="23.25">
       <c r="A24" s="4" t="s">
@@ -5237,11 +5237,11 @@
       <c r="N27" s="65"/>
     </row>
     <row r="29" spans="1:14" ht="21.75" customHeight="1">
-      <c r="B29" s="181" t="s">
+      <c r="B29" s="184" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="182"/>
-      <c r="D29" s="183"/>
+      <c r="C29" s="185"/>
+      <c r="D29" s="186"/>
     </row>
     <row r="30" spans="1:14" ht="90" customHeight="1">
       <c r="B30" s="5"/>
@@ -5318,14 +5318,14 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" ht="25.5">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="196" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="10"/>
@@ -5511,12 +5511,12 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="26.25">
-      <c r="A2" s="196" t="s">
+      <c r="A2" s="199" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="196"/>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
+      <c r="B2" s="199"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
       <c r="E2" s="150"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -5677,18 +5677,18 @@
       <c r="F14" s="29"/>
     </row>
     <row r="16" spans="1:11" ht="15">
-      <c r="A16" s="194" t="s">
+      <c r="A16" s="197" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="194"/>
+      <c r="B16" s="197"/>
       <c r="C16" s="30"/>
       <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4" ht="14.25">
-      <c r="A17" s="195" t="s">
+      <c r="A17" s="198" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="195"/>
+      <c r="B17" s="198"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="33"/>
@@ -5717,8 +5717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X132"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5733,10 +5733,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="14.25">
-      <c r="A1" s="197"/>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
+      <c r="A1" s="209"/>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -5745,13 +5745,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="198" t="s">
+      <c r="A2" s="210" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="198"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="207"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="205"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -5760,9 +5760,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="207"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="205"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -5773,11 +5773,11 @@
       <c r="A4" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="200" t="s">
+      <c r="B4" s="207" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="200"/>
-      <c r="D4" s="200"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -5791,11 +5791,11 @@
       <c r="A5" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="199" t="s">
+      <c r="B5" s="208" t="s">
         <v>245</v>
       </c>
-      <c r="C5" s="200"/>
-      <c r="D5" s="200"/>
+      <c r="C5" s="207"/>
+      <c r="D5" s="207"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -5809,11 +5809,11 @@
       <c r="A6" s="134" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="199" t="s">
+      <c r="B6" s="208" t="s">
         <v>284</v>
       </c>
-      <c r="C6" s="200"/>
-      <c r="D6" s="200"/>
+      <c r="C6" s="207"/>
+      <c r="D6" s="207"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -5824,11 +5824,11 @@
       <c r="A7" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="207" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="200"/>
-      <c r="D7" s="200"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -5840,9 +5840,9 @@
       <c r="A8" s="134" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="201"/>
-      <c r="C8" s="201"/>
-      <c r="D8" s="201"/>
+      <c r="B8" s="211"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -5985,11 +5985,11 @@
       <c r="C16" s="49"/>
       <c r="D16" s="50"/>
       <c r="E16" s="55"/>
-      <c r="F16" s="202" t="s">
+      <c r="F16" s="200" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="202"/>
-      <c r="H16" s="202"/>
+      <c r="G16" s="200"/>
+      <c r="H16" s="200"/>
       <c r="I16" s="56"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="38.25">
@@ -6023,11 +6023,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="62"/>
-      <c r="B18" s="203" t="s">
+      <c r="B18" s="201" t="s">
         <v>202</v>
       </c>
-      <c r="C18" s="204"/>
-      <c r="D18" s="205"/>
+      <c r="C18" s="202"/>
+      <c r="D18" s="203"/>
       <c r="E18" s="62"/>
       <c r="F18" s="63"/>
       <c r="G18" s="63"/>
@@ -6036,11 +6036,11 @@
     </row>
     <row r="19" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="62"/>
-      <c r="B19" s="203" t="s">
+      <c r="B19" s="201" t="s">
         <v>201</v>
       </c>
-      <c r="C19" s="204"/>
-      <c r="D19" s="205"/>
+      <c r="C19" s="202"/>
+      <c r="D19" s="203"/>
       <c r="E19" s="62"/>
       <c r="F19" s="63"/>
       <c r="G19" s="63"/>
@@ -6149,7 +6149,7 @@
       <c r="C25" s="51" t="s">
         <v>293</v>
       </c>
-      <c r="D25" s="232"/>
+      <c r="D25" s="171"/>
       <c r="E25" s="53"/>
       <c r="F25" s="51"/>
       <c r="G25" s="51"/>
@@ -6244,7 +6244,7 @@
       <c r="B30" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="C30" s="233" t="s">
+      <c r="C30" s="172" t="s">
         <v>304</v>
       </c>
       <c r="D30" s="53" t="s">
@@ -6264,7 +6264,7 @@
       <c r="B31" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="C31" s="233" t="s">
+      <c r="C31" s="172" t="s">
         <v>305</v>
       </c>
       <c r="D31" s="53" t="s">
@@ -6284,7 +6284,7 @@
       <c r="B32" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="C32" s="233" t="s">
+      <c r="C32" s="172" t="s">
         <v>306</v>
       </c>
       <c r="D32" s="53" t="s">
@@ -6304,7 +6304,7 @@
       <c r="B33" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C33" s="233" t="s">
+      <c r="C33" s="172" t="s">
         <v>307</v>
       </c>
       <c r="D33" s="53" t="s">
@@ -6453,7 +6453,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>20</v>
       </c>
-      <c r="B41" s="234" t="s">
+      <c r="B41" s="173" t="s">
         <v>254</v>
       </c>
       <c r="C41" s="51" t="s">
@@ -6771,7 +6771,7 @@
       <c r="C57" s="51" t="s">
         <v>356</v>
       </c>
-      <c r="D57" s="232"/>
+      <c r="D57" s="171"/>
       <c r="E57" s="53"/>
       <c r="F57" s="51"/>
       <c r="G57" s="51"/>
@@ -7505,7 +7505,7 @@
       <c r="C95" s="51" t="s">
         <v>417</v>
       </c>
-      <c r="D95" s="232"/>
+      <c r="D95" s="171"/>
       <c r="E95" s="53"/>
       <c r="F95" s="51"/>
       <c r="G95" s="51"/>
@@ -7786,11 +7786,11 @@
     </row>
     <row r="110" spans="1:9" s="48" customFormat="1" ht="14.25">
       <c r="A110" s="72"/>
-      <c r="B110" s="206" t="s">
+      <c r="B110" s="204" t="s">
         <v>235</v>
       </c>
-      <c r="C110" s="204"/>
-      <c r="D110" s="205"/>
+      <c r="C110" s="202"/>
+      <c r="D110" s="203"/>
       <c r="E110" s="64"/>
       <c r="F110" s="61"/>
       <c r="G110" s="61"/>
@@ -8157,6 +8157,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B110:D110"/>
@@ -8165,11 +8170,6 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17"/>
@@ -8226,13 +8226,13 @@
     </row>
     <row r="2" spans="1:12" s="79" customFormat="1" ht="26.25">
       <c r="A2" s="78"/>
-      <c r="C2" s="211" t="s">
+      <c r="C2" s="230" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
       <c r="H2" s="80" t="s">
         <v>115</v>
       </c>
@@ -8243,15 +8243,15 @@
     </row>
     <row r="3" spans="1:12" s="79" customFormat="1" ht="23.25">
       <c r="A3" s="78"/>
-      <c r="C3" s="212" t="s">
+      <c r="C3" s="231" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="212"/>
+      <c r="D3" s="231"/>
       <c r="E3" s="151"/>
-      <c r="F3" s="213" t="s">
+      <c r="F3" s="232" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="213"/>
+      <c r="G3" s="232"/>
       <c r="H3" s="81"/>
       <c r="I3" s="81"/>
       <c r="J3" s="82"/>
@@ -8678,10 +8678,10 @@
       <c r="F26" s="154" t="s">
         <v>165</v>
       </c>
-      <c r="G26" s="215" t="s">
+      <c r="G26" s="233" t="s">
         <v>110</v>
       </c>
-      <c r="H26" s="216"/>
+      <c r="H26" s="234"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="95">
@@ -8706,8 +8706,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="209"/>
-      <c r="H27" s="210"/>
+      <c r="G27" s="225"/>
+      <c r="H27" s="226"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="95">
@@ -8732,8 +8732,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="209"/>
-      <c r="H28" s="210"/>
+      <c r="G28" s="225"/>
+      <c r="H28" s="226"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="95">
@@ -8758,8 +8758,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="209"/>
-      <c r="H29" s="210"/>
+      <c r="G29" s="225"/>
+      <c r="H29" s="226"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="95">
@@ -8784,8 +8784,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="209"/>
-      <c r="H30" s="210"/>
+      <c r="G30" s="225"/>
+      <c r="H30" s="226"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="95"/>
@@ -8806,8 +8806,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="209"/>
-      <c r="H31" s="210"/>
+      <c r="G31" s="225"/>
+      <c r="H31" s="226"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="101"/>
@@ -8845,10 +8845,10 @@
       <c r="E34" s="154" t="s">
         <v>124</v>
       </c>
-      <c r="F34" s="217" t="s">
+      <c r="F34" s="219" t="s">
         <v>127</v>
       </c>
-      <c r="G34" s="218"/>
+      <c r="G34" s="221"/>
     </row>
     <row r="35" spans="1:12" s="120" customFormat="1">
       <c r="A35" s="116"/>
@@ -8864,8 +8864,8 @@
       <c r="E35" s="121" t="s">
         <v>132</v>
       </c>
-      <c r="F35" s="220"/>
-      <c r="G35" s="221"/>
+      <c r="F35" s="228"/>
+      <c r="G35" s="229"/>
       <c r="H35" s="119"/>
       <c r="I35" s="119"/>
       <c r="J35" s="119"/>
@@ -8888,8 +8888,8 @@
       <c r="E36" s="99" t="s">
         <v>138</v>
       </c>
-      <c r="F36" s="209"/>
-      <c r="G36" s="210"/>
+      <c r="F36" s="225"/>
+      <c r="G36" s="226"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="95">
@@ -8907,8 +8907,8 @@
       <c r="E37" s="99" t="s">
         <v>138</v>
       </c>
-      <c r="F37" s="209"/>
-      <c r="G37" s="210"/>
+      <c r="F37" s="225"/>
+      <c r="G37" s="226"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="101"/>
@@ -8948,15 +8948,15 @@
       <c r="B41" s="154" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="219" t="s">
+      <c r="C41" s="227" t="s">
         <v>181</v>
       </c>
-      <c r="D41" s="219"/>
-      <c r="E41" s="219" t="s">
+      <c r="D41" s="227"/>
+      <c r="E41" s="227" t="s">
         <v>182</v>
       </c>
-      <c r="F41" s="219"/>
-      <c r="G41" s="219"/>
+      <c r="F41" s="227"/>
+      <c r="G41" s="227"/>
       <c r="H41" s="94" t="s">
         <v>183</v>
       </c>
@@ -8968,15 +8968,15 @@
       <c r="B42" s="155" t="s">
         <v>184</v>
       </c>
-      <c r="C42" s="222" t="s">
+      <c r="C42" s="224" t="s">
         <v>185</v>
       </c>
-      <c r="D42" s="222"/>
-      <c r="E42" s="222" t="s">
+      <c r="D42" s="224"/>
+      <c r="E42" s="224" t="s">
         <v>186</v>
       </c>
-      <c r="F42" s="222"/>
-      <c r="G42" s="222"/>
+      <c r="F42" s="224"/>
+      <c r="G42" s="224"/>
       <c r="H42" s="104"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -8986,15 +8986,15 @@
       <c r="B43" s="155" t="s">
         <v>184</v>
       </c>
-      <c r="C43" s="222" t="s">
+      <c r="C43" s="224" t="s">
         <v>185</v>
       </c>
-      <c r="D43" s="222"/>
-      <c r="E43" s="222" t="s">
+      <c r="D43" s="224"/>
+      <c r="E43" s="224" t="s">
         <v>186</v>
       </c>
-      <c r="F43" s="222"/>
-      <c r="G43" s="222"/>
+      <c r="F43" s="224"/>
+      <c r="G43" s="224"/>
       <c r="H43" s="104"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -9004,15 +9004,15 @@
       <c r="B44" s="155" t="s">
         <v>184</v>
       </c>
-      <c r="C44" s="222" t="s">
+      <c r="C44" s="224" t="s">
         <v>185</v>
       </c>
-      <c r="D44" s="222"/>
-      <c r="E44" s="222" t="s">
+      <c r="D44" s="224"/>
+      <c r="E44" s="224" t="s">
         <v>186</v>
       </c>
-      <c r="F44" s="222"/>
-      <c r="G44" s="222"/>
+      <c r="F44" s="224"/>
+      <c r="G44" s="224"/>
       <c r="H44" s="104"/>
     </row>
     <row r="45" spans="1:12">
@@ -9045,25 +9045,25 @@
       <c r="G47" s="93"/>
     </row>
     <row r="48" spans="1:12" s="108" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="225" t="s">
+      <c r="A48" s="215" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="227" t="s">
+      <c r="B48" s="217" t="s">
         <v>189</v>
       </c>
-      <c r="C48" s="217" t="s">
+      <c r="C48" s="219" t="s">
         <v>190</v>
       </c>
-      <c r="D48" s="229"/>
-      <c r="E48" s="229"/>
-      <c r="F48" s="218"/>
-      <c r="G48" s="230" t="s">
+      <c r="D48" s="220"/>
+      <c r="E48" s="220"/>
+      <c r="F48" s="221"/>
+      <c r="G48" s="222" t="s">
         <v>157</v>
       </c>
-      <c r="H48" s="230" t="s">
+      <c r="H48" s="222" t="s">
         <v>189</v>
       </c>
-      <c r="I48" s="223" t="s">
+      <c r="I48" s="212" t="s">
         <v>191</v>
       </c>
       <c r="J48" s="107"/>
@@ -9071,8 +9071,8 @@
       <c r="L48" s="107"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="226"/>
-      <c r="B49" s="228"/>
+      <c r="A49" s="216"/>
+      <c r="B49" s="218"/>
       <c r="C49" s="109" t="s">
         <v>166</v>
       </c>
@@ -9085,13 +9085,13 @@
       <c r="F49" s="110" t="s">
         <v>169</v>
       </c>
-      <c r="G49" s="231"/>
-      <c r="H49" s="231"/>
-      <c r="I49" s="224"/>
+      <c r="G49" s="223"/>
+      <c r="H49" s="223"/>
+      <c r="I49" s="213"/>
     </row>
     <row r="50" spans="1:9" ht="38.25">
-      <c r="A50" s="226"/>
-      <c r="B50" s="228"/>
+      <c r="A50" s="216"/>
+      <c r="B50" s="218"/>
       <c r="C50" s="123" t="s">
         <v>192</v>
       </c>
@@ -9203,26 +9203,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="F35:G35"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -9235,6 +9215,26 @@
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
   </mergeCells>
   <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
@@ -9272,9 +9272,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9443,27 +9446,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cabca498-5e2a-459c-ade0-601c6a98c846"/>
-    <ds:schemaRef ds:uri="044e8ed5-b60c-40cd-b477-04c240ccf9c3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9488,9 +9479,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cabca498-5e2a-459c-ade0-601c6a98c846"/>
+    <ds:schemaRef ds:uri="044e8ed5-b60c-40cd-b477-04c240ccf9c3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>